--- a/Data/excel/NoSheet/CharacterData.xlsx
+++ b/Data/excel/NoSheet/CharacterData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26421"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProject\MyMMO\Data\excel\NoSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC42E48-4CC8-460D-84B7-ED8CA7F70F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DE5F46-D21F-4476-96EC-CA3D296FF07A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -846,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1032,7 +1032,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>15</v>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>36</v>
@@ -1126,7 +1126,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>38</v>

--- a/Data/excel/NoSheet/CharacterData.xlsx
+++ b/Data/excel/NoSheet/CharacterData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26516"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProject\MyMMO\Data\excel\NoSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DE5F46-D21F-4476-96EC-CA3D296FF07A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC677895-1FC0-456B-8B42-B44784ACAC20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>Class</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,9 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WARRIOR</t>
-  </si>
-  <si>
     <t>战士</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -169,14 +166,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HUNTER</t>
-  </si>
-  <si>
     <t>猎人</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SORCERE</t>
   </si>
   <si>
     <t>法师</t>
@@ -847,7 +838,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -873,7 +864,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -918,18 +909,18 @@
         <v>9</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>14</v>
@@ -941,104 +932,104 @@
         <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="Q3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="F4" s="1">
         <v>300</v>
@@ -1081,11 +1072,11 @@
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>36</v>
+      <c r="B5" s="1">
+        <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F5" s="1">
         <v>350</v>
@@ -1128,11 +1119,11 @@
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>38</v>
+      <c r="B6" s="1">
+        <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F6" s="1">
         <v>300</v>
@@ -1174,7 +1165,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B21" xr:uid="{6E19BBDD-ADE8-4AEF-80ED-4A2212361686}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B21" xr:uid="{6E19BBDD-ADE8-4AEF-80ED-4A2212361686}">
       <formula1>"WARRIOR,HUNTER,SORCERE"</formula1>
     </dataValidation>
   </dataValidations>
